--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130518.67</v>
+        <v>1165093.75</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141314.83</v>
+        <v>116509.38</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53575.87</v>
+        <v>53955.34</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608212.9</v>
+        <v>608194.97</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106295.65</v>
+        <v>105941.03</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259357.84</v>
+        <v>260428.3</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93817.64</v>
+        <v>93559.06</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9258.77</v>
+        <v>9291.49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>33723.56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,95 +439,127 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1165093.75</v>
+        <v>53955.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54203.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116509.38</v>
+        <v>608194.97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>610727.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53955.34</v>
+        <v>33723.56</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34244.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608194.97</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>105941.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86120.32000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105941.03</v>
+        <v>260428.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>261062.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>260428.3</v>
+        <v>93559.06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>93715.96000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93559.06</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -539,25 +571,34 @@
       <c r="B11" t="n">
         <v>9291.49</v>
       </c>
+      <c r="C11" t="n">
+        <v>9157.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33723.56</v>
+        <v>116509.38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114923.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1165093.75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1149232.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,166 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1149232.32</v>
+        <v>54203.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54684.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114923.23</v>
+        <v>610727.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>607449.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54203.95</v>
+        <v>34244.36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34386.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>610727.05</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34244.36</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>86120.32000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81520.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>261062.93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>261504.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86120.32000000001</v>
+        <v>93715.96000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>93524.78999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261062.93</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93715.96000000001</v>
+        <v>9157.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9349.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>114923.23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114242.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9157.75</v>
+        <v>1149232.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1142420.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -480,9 +480,7 @@
       <c r="B4" t="n">
         <v>34244.36</v>
       </c>
-      <c r="C4" t="n">
-        <v>34386.96</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -493,9 +491,7 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,9 +541,7 @@
       <c r="B9" t="n">
         <v>93715.96000000001</v>
       </c>
-      <c r="C9" t="n">
-        <v>93524.78999999999</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,7 +579,7 @@
         <v>114923.23</v>
       </c>
       <c r="C12" t="n">
-        <v>114242.09</v>
+        <v>144929.88</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +592,7 @@
         <v>1149232.32</v>
       </c>
       <c r="C13" t="n">
-        <v>1142420.89</v>
+        <v>1014509.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54203.95</v>
+        <v>54514.76</v>
       </c>
       <c r="C2" t="n">
-        <v>54684.63</v>
+        <v>53080.7</v>
       </c>
       <c r="D2" t="n">
-        <v>54387.01</v>
+        <v>62130.24</v>
       </c>
       <c r="E2" t="n">
-        <v>54511.32</v>
+        <v>54332.68</v>
       </c>
       <c r="F2" t="n">
-        <v>53031.8</v>
+        <v>54615.4</v>
       </c>
       <c r="G2" t="n">
-        <v>54629.94</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50550.09</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53859.49</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54376.91</v>
-      </c>
-      <c r="K2" t="n">
-        <v>53590.76</v>
-      </c>
-      <c r="L2" t="n">
-        <v>53508.14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54514.76</v>
+        <v>54335.21</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>610727.05</v>
+        <v>610831.0600000001</v>
       </c>
       <c r="C3" t="n">
-        <v>607449.66</v>
+        <v>610930.75</v>
       </c>
       <c r="D3" t="n">
-        <v>611422.17</v>
+        <v>695275.71</v>
       </c>
       <c r="E3" t="n">
-        <v>609834.08</v>
+        <v>566028.13</v>
       </c>
       <c r="F3" t="n">
-        <v>609418.6</v>
+        <v>565391.49</v>
       </c>
       <c r="G3" t="n">
-        <v>608546.16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>565446.47</v>
-      </c>
-      <c r="I3" t="n">
-        <v>611135.8199999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>609485.73</v>
-      </c>
-      <c r="K3" t="n">
-        <v>611141.79</v>
-      </c>
-      <c r="L3" t="n">
-        <v>610476.05</v>
-      </c>
-      <c r="M3" t="n">
-        <v>610831.0600000001</v>
+        <v>565782.37</v>
       </c>
     </row>
     <row r="4">
@@ -588,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34244.36</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>33564.37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34992.62</v>
+      </c>
       <c r="D4" t="n">
-        <v>33958.61</v>
+        <v>39123.95</v>
       </c>
       <c r="E4" t="n">
-        <v>34149.89</v>
+        <v>33991.23</v>
       </c>
       <c r="F4" t="n">
-        <v>34044.75</v>
+        <v>34782.42</v>
       </c>
       <c r="G4" t="n">
-        <v>34694.65</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34622.67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32831.93</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34339.19</v>
-      </c>
-      <c r="K4" t="n">
-        <v>35594.36</v>
-      </c>
-      <c r="L4" t="n">
-        <v>34397.89</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33564.37</v>
+        <v>33018.14</v>
       </c>
     </row>
     <row r="5">
@@ -631,7 +549,9 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -642,24 +562,6 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -687,24 +589,6 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -713,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86120.32000000001</v>
+        <v>70734</v>
       </c>
       <c r="C7" t="n">
-        <v>81520.53</v>
+        <v>71285.42</v>
       </c>
       <c r="D7" t="n">
-        <v>75873.84</v>
+        <v>81528.67</v>
       </c>
       <c r="E7" t="n">
-        <v>76370.89999999999</v>
+        <v>70936.63</v>
       </c>
       <c r="F7" t="n">
-        <v>76765.14</v>
+        <v>71720.64999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>76516.89999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>69718.08</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75740.75999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>72104.12</v>
-      </c>
-      <c r="K7" t="n">
-        <v>71962.09</v>
-      </c>
-      <c r="L7" t="n">
-        <v>71176.62</v>
-      </c>
-      <c r="M7" t="n">
-        <v>70734</v>
+        <v>69709.24000000001</v>
       </c>
     </row>
     <row r="8">
@@ -756,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261062.93</v>
+        <v>249955.37</v>
       </c>
       <c r="C8" t="n">
-        <v>261504.56</v>
+        <v>250185.72</v>
       </c>
       <c r="D8" t="n">
-        <v>249108.96</v>
+        <v>286317.17</v>
       </c>
       <c r="E8" t="n">
-        <v>249966.01</v>
+        <v>249297.4</v>
       </c>
       <c r="F8" t="n">
-        <v>249634.57</v>
+        <v>249806.53</v>
       </c>
       <c r="G8" t="n">
-        <v>250237.84</v>
-      </c>
-      <c r="H8" t="n">
-        <v>231344.15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>250851.08</v>
-      </c>
-      <c r="J8" t="n">
-        <v>250529.46</v>
-      </c>
-      <c r="K8" t="n">
-        <v>249887.12</v>
-      </c>
-      <c r="L8" t="n">
-        <v>251572.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>249955.37</v>
+        <v>250475.15</v>
       </c>
     </row>
     <row r="9">
@@ -799,192 +647,97 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93715.96000000001</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>92731.92</v>
+      </c>
+      <c r="C9" t="n">
+        <v>93142.03999999999</v>
+      </c>
       <c r="D9" t="n">
-        <v>93420.7</v>
+        <v>107022.64</v>
       </c>
       <c r="E9" t="n">
-        <v>93467.39</v>
+        <v>92848.24000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>93686.53</v>
+        <v>93693.66</v>
       </c>
       <c r="G9" t="n">
-        <v>93554.06</v>
-      </c>
-      <c r="H9" t="n">
-        <v>85598.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>93955.75999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>94114.37</v>
-      </c>
-      <c r="K9" t="n">
-        <v>92468.42</v>
-      </c>
-      <c r="L9" t="n">
-        <v>93096.28999999999</v>
-      </c>
-      <c r="M9" t="n">
-        <v>92731.92</v>
+        <v>93062.85000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8786.559999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9069.799999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>10077.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8975.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9096.639999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9284.040000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9157.75</v>
+        <v>124568.67</v>
       </c>
       <c r="C11" t="n">
-        <v>9349.76</v>
+        <v>124743.01</v>
       </c>
       <c r="D11" t="n">
-        <v>8905.440000000001</v>
+        <v>142386.25</v>
       </c>
       <c r="E11" t="n">
-        <v>9070.83</v>
+        <v>119601.14</v>
       </c>
       <c r="F11" t="n">
-        <v>9146.26</v>
+        <v>119900.75</v>
       </c>
       <c r="G11" t="n">
-        <v>8960.379999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8203.16</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9230.34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8788.290000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8996</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9023.83</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8786.559999999999</v>
+        <v>119518.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114923.23</v>
+        <v>1121118.04</v>
       </c>
       <c r="C12" t="n">
-        <v>144929.88</v>
+        <v>1122687.05</v>
       </c>
       <c r="D12" t="n">
-        <v>112707.67</v>
+        <v>1281476.24</v>
       </c>
       <c r="E12" t="n">
-        <v>125263.38</v>
+        <v>1076410.29</v>
       </c>
       <c r="F12" t="n">
-        <v>125080.85</v>
+        <v>1079106.79</v>
       </c>
       <c r="G12" t="n">
-        <v>125237.77</v>
-      </c>
-      <c r="H12" t="n">
-        <v>116164.76</v>
-      </c>
-      <c r="I12" t="n">
-        <v>125289.46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>124859.79</v>
-      </c>
-      <c r="K12" t="n">
-        <v>124848.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>124805.7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>124568.67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1149232.32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1014509.14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1127076.73</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1127370.42</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1125727.65</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1127139.93</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1045482.87</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1127605.18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1123738.07</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1123640.54</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1123251.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1121118.04</v>
+        <v>1075667</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>54203.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54684.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54387.01</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54511.32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>53031.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54629.94</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50550.09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53859.49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>54376.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>53590.76</v>
+      </c>
+      <c r="L2" t="n">
+        <v>53508.14</v>
+      </c>
+      <c r="M2" t="n">
         <v>54514.76</v>
-      </c>
-      <c r="C2" t="n">
-        <v>53080.7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62130.24</v>
-      </c>
-      <c r="E2" t="n">
-        <v>54332.68</v>
-      </c>
-      <c r="F2" t="n">
-        <v>54615.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54335.21</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>610727.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>607449.66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>611422.17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>609834.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>609418.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>608546.16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>565446.47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>611135.8199999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>609485.73</v>
+      </c>
+      <c r="K3" t="n">
+        <v>611141.79</v>
+      </c>
+      <c r="L3" t="n">
+        <v>610476.05</v>
+      </c>
+      <c r="M3" t="n">
         <v>610831.0600000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>610930.75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>695275.71</v>
-      </c>
-      <c r="E3" t="n">
-        <v>566028.13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>565391.49</v>
-      </c>
-      <c r="G3" t="n">
-        <v>565782.37</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>34244.36</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>33958.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34149.89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34044.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34694.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>34622.67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32831.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34339.19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35594.36</v>
+      </c>
+      <c r="L4" t="n">
+        <v>34397.89</v>
+      </c>
+      <c r="M4" t="n">
         <v>33564.37</v>
-      </c>
-      <c r="C4" t="n">
-        <v>34992.62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39123.95</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33991.23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34782.42</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33018.14</v>
       </c>
     </row>
     <row r="5">
@@ -549,9 +631,7 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -562,6 +642,24 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,6 +687,24 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -597,22 +713,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>86120.32000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81520.53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75873.84</v>
+      </c>
+      <c r="E7" t="n">
+        <v>76370.89999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76765.14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76516.89999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69718.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>75740.75999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>72104.12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>71962.09</v>
+      </c>
+      <c r="L7" t="n">
+        <v>71176.62</v>
+      </c>
+      <c r="M7" t="n">
         <v>70734</v>
-      </c>
-      <c r="C7" t="n">
-        <v>71285.42</v>
-      </c>
-      <c r="D7" t="n">
-        <v>81528.67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>70936.63</v>
-      </c>
-      <c r="F7" t="n">
-        <v>71720.64999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>69709.24000000001</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +756,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>261062.93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>261504.56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>249108.96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>249966.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>249634.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250237.84</v>
+      </c>
+      <c r="H8" t="n">
+        <v>231344.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>250851.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>250529.46</v>
+      </c>
+      <c r="K8" t="n">
+        <v>249887.12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>251572.5</v>
+      </c>
+      <c r="M8" t="n">
         <v>249955.37</v>
-      </c>
-      <c r="C8" t="n">
-        <v>250185.72</v>
-      </c>
-      <c r="D8" t="n">
-        <v>286317.17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>249297.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>249806.53</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250475.15</v>
       </c>
     </row>
     <row r="9">
@@ -647,97 +799,192 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>93715.96000000001</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>93420.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>93467.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>93686.53</v>
+      </c>
+      <c r="G9" t="n">
+        <v>93554.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>85598.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>93955.75999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>94114.37</v>
+      </c>
+      <c r="K9" t="n">
+        <v>92468.42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>93096.28999999999</v>
+      </c>
+      <c r="M9" t="n">
         <v>92731.92</v>
-      </c>
-      <c r="C9" t="n">
-        <v>93142.03999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>107022.64</v>
-      </c>
-      <c r="E9" t="n">
-        <v>92848.24000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>93693.66</v>
-      </c>
-      <c r="G9" t="n">
-        <v>93062.85000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8786.559999999999</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9069.799999999999</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10077.86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8975.98</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9096.639999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9284.040000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124568.67</v>
+        <v>9157.75</v>
       </c>
       <c r="C11" t="n">
-        <v>124743.01</v>
+        <v>9349.76</v>
       </c>
       <c r="D11" t="n">
-        <v>142386.25</v>
+        <v>8905.440000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>119601.14</v>
+        <v>9070.83</v>
       </c>
       <c r="F11" t="n">
-        <v>119900.75</v>
+        <v>9146.26</v>
       </c>
       <c r="G11" t="n">
-        <v>119518.56</v>
+        <v>8960.379999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8203.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9230.34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8788.290000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8996</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9023.83</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8786.559999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>114923.23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>144929.88</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112707.67</v>
+      </c>
+      <c r="E12" t="n">
+        <v>125263.38</v>
+      </c>
+      <c r="F12" t="n">
+        <v>125080.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>125237.77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>116164.76</v>
+      </c>
+      <c r="I12" t="n">
+        <v>125289.46</v>
+      </c>
+      <c r="J12" t="n">
+        <v>124859.79</v>
+      </c>
+      <c r="K12" t="n">
+        <v>124848.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>124805.7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>124568.67</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
+        <v>1149232.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1014509.14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1127076.73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1127370.42</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1125727.65</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1127139.93</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1045482.87</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1127605.18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1123738.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1123640.54</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1123251.32</v>
+      </c>
+      <c r="M13" t="n">
         <v>1121118.04</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1122687.05</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1281476.24</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1076410.29</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1079106.79</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1075667</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54203.95</v>
+        <v>54514.76</v>
       </c>
       <c r="C2" t="n">
-        <v>54684.63</v>
+        <v>53080.7</v>
       </c>
       <c r="D2" t="n">
-        <v>54387.01</v>
+        <v>62130.24</v>
       </c>
       <c r="E2" t="n">
-        <v>54511.32</v>
+        <v>54332.68</v>
       </c>
       <c r="F2" t="n">
-        <v>53031.8</v>
+        <v>54615.4</v>
       </c>
       <c r="G2" t="n">
-        <v>54629.94</v>
+        <v>54335.21</v>
       </c>
       <c r="H2" t="n">
-        <v>50550.09</v>
+        <v>53715.78</v>
       </c>
       <c r="I2" t="n">
-        <v>53859.49</v>
+        <v>53192.21</v>
       </c>
       <c r="J2" t="n">
-        <v>54376.91</v>
+        <v>53248.97</v>
       </c>
       <c r="K2" t="n">
-        <v>53590.76</v>
+        <v>54103.35</v>
       </c>
       <c r="L2" t="n">
-        <v>53508.14</v>
+        <v>54461.34</v>
       </c>
       <c r="M2" t="n">
-        <v>54514.76</v>
+        <v>53719.29</v>
+      </c>
+      <c r="N2" t="n">
+        <v>53862.74</v>
+      </c>
+      <c r="O2" t="n">
+        <v>53305.11</v>
+      </c>
+      <c r="P2" t="n">
+        <v>53158.02</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>52874.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>54461.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>54399.48</v>
+      </c>
+      <c r="T2" t="n">
+        <v>53577.94</v>
+      </c>
+      <c r="U2" t="n">
+        <v>53861.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>53922.87</v>
+      </c>
+      <c r="W2" t="n">
+        <v>53656.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>52712.56</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>54638.16</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>54217.93</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>54983.87</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>610727.05</v>
+        <v>610831.0600000001</v>
       </c>
       <c r="C3" t="n">
-        <v>607449.66</v>
+        <v>610930.75</v>
       </c>
       <c r="D3" t="n">
-        <v>611422.17</v>
+        <v>695275.71</v>
       </c>
       <c r="E3" t="n">
-        <v>609834.08</v>
+        <v>566028.13</v>
       </c>
       <c r="F3" t="n">
-        <v>609418.6</v>
+        <v>565391.49</v>
       </c>
       <c r="G3" t="n">
-        <v>608546.16</v>
+        <v>565782.37</v>
       </c>
       <c r="H3" t="n">
-        <v>565446.47</v>
+        <v>567259.0699999999</v>
       </c>
       <c r="I3" t="n">
-        <v>611135.8199999999</v>
+        <v>567336.5699999999</v>
       </c>
       <c r="J3" t="n">
-        <v>609485.73</v>
+        <v>567091.8</v>
       </c>
       <c r="K3" t="n">
-        <v>611141.79</v>
+        <v>564947.88</v>
       </c>
       <c r="L3" t="n">
-        <v>610476.05</v>
+        <v>564939.92</v>
       </c>
       <c r="M3" t="n">
-        <v>610831.0600000001</v>
+        <v>566962.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>504496.91</v>
+      </c>
+      <c r="O3" t="n">
+        <v>504543.95</v>
+      </c>
+      <c r="P3" t="n">
+        <v>503101.17</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>504832.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>503958.34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>504049.52</v>
+      </c>
+      <c r="T3" t="n">
+        <v>505409.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>504788.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>505117.29</v>
+      </c>
+      <c r="W3" t="n">
+        <v>504623.95</v>
+      </c>
+      <c r="X3" t="n">
+        <v>503129.13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>502645.66</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>503714.71</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>502746.07</v>
       </c>
     </row>
     <row r="4">
@@ -588,39 +742,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34244.36</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>33564.37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34992.62</v>
+      </c>
       <c r="D4" t="n">
-        <v>33958.61</v>
+        <v>39123.95</v>
       </c>
       <c r="E4" t="n">
-        <v>34149.89</v>
+        <v>33991.23</v>
       </c>
       <c r="F4" t="n">
-        <v>34044.75</v>
+        <v>34782.42</v>
       </c>
       <c r="G4" t="n">
-        <v>34694.65</v>
+        <v>33018.14</v>
       </c>
       <c r="H4" t="n">
-        <v>34622.67</v>
+        <v>33597.19</v>
       </c>
       <c r="I4" t="n">
-        <v>32831.93</v>
+        <v>33719.24</v>
       </c>
       <c r="J4" t="n">
-        <v>34339.19</v>
+        <v>35185.89</v>
       </c>
       <c r="K4" t="n">
-        <v>35594.36</v>
+        <v>33281.35</v>
       </c>
       <c r="L4" t="n">
-        <v>34397.89</v>
+        <v>34582.62</v>
       </c>
       <c r="M4" t="n">
-        <v>33564.37</v>
-      </c>
+        <v>33489.42</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,7 +801,9 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -660,6 +832,48 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,6 +919,48 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -713,40 +969,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86120.32000000001</v>
+        <v>70734</v>
       </c>
       <c r="C7" t="n">
-        <v>81520.53</v>
+        <v>71285.42</v>
       </c>
       <c r="D7" t="n">
-        <v>75873.84</v>
+        <v>81528.67</v>
       </c>
       <c r="E7" t="n">
-        <v>76370.89999999999</v>
+        <v>70936.63</v>
       </c>
       <c r="F7" t="n">
-        <v>76765.14</v>
+        <v>71720.64999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>76516.89999999999</v>
+        <v>69709.24000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>69718.08</v>
+        <v>69914.92</v>
       </c>
       <c r="I7" t="n">
-        <v>75740.75999999999</v>
+        <v>70108.59</v>
       </c>
       <c r="J7" t="n">
-        <v>72104.12</v>
+        <v>69466.99000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>71962.09</v>
+        <v>69903.16</v>
       </c>
       <c r="L7" t="n">
-        <v>71176.62</v>
+        <v>69754.92999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>70734</v>
+        <v>69599.75</v>
+      </c>
+      <c r="N7" t="n">
+        <v>70404.42999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>69556.64</v>
+      </c>
+      <c r="P7" t="n">
+        <v>69887.36</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>69384.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>69836.12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>69443.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>70620.67999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>70033.82000000001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>70549.03</v>
+      </c>
+      <c r="W7" t="n">
+        <v>69806.42999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>70452.98</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>70092.02</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>70235.44</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>70220.64</v>
       </c>
     </row>
     <row r="8">
@@ -756,40 +1054,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261062.93</v>
+        <v>249955.37</v>
       </c>
       <c r="C8" t="n">
-        <v>261504.56</v>
+        <v>250185.72</v>
       </c>
       <c r="D8" t="n">
-        <v>249108.96</v>
+        <v>286317.17</v>
       </c>
       <c r="E8" t="n">
-        <v>249966.01</v>
+        <v>249297.4</v>
       </c>
       <c r="F8" t="n">
-        <v>249634.57</v>
+        <v>249806.53</v>
       </c>
       <c r="G8" t="n">
-        <v>250237.84</v>
+        <v>250475.15</v>
       </c>
       <c r="H8" t="n">
-        <v>231344.15</v>
+        <v>250850.85</v>
       </c>
       <c r="I8" t="n">
-        <v>250851.08</v>
+        <v>248945.77</v>
       </c>
       <c r="J8" t="n">
-        <v>250529.46</v>
+        <v>250266.23</v>
       </c>
       <c r="K8" t="n">
-        <v>249887.12</v>
+        <v>251033.3</v>
       </c>
       <c r="L8" t="n">
-        <v>251572.5</v>
+        <v>250819.46</v>
       </c>
       <c r="M8" t="n">
-        <v>249955.37</v>
+        <v>249315.88</v>
+      </c>
+      <c r="N8" t="n">
+        <v>250706.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>250282.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>250368.58</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>249274.55</v>
+      </c>
+      <c r="R8" t="n">
+        <v>250188.52</v>
+      </c>
+      <c r="S8" t="n">
+        <v>251157.14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>249807.55</v>
+      </c>
+      <c r="U8" t="n">
+        <v>249891.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>250174.79</v>
+      </c>
+      <c r="W8" t="n">
+        <v>251363.58</v>
+      </c>
+      <c r="X8" t="n">
+        <v>251368.99</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>251309.38</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>250190.39</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>250784.83</v>
       </c>
     </row>
     <row r="9">
@@ -799,192 +1139,323 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93715.96000000001</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>92731.92</v>
+      </c>
+      <c r="C9" t="n">
+        <v>93142.03999999999</v>
+      </c>
       <c r="D9" t="n">
-        <v>93420.7</v>
+        <v>107022.64</v>
       </c>
       <c r="E9" t="n">
-        <v>93467.39</v>
+        <v>92848.24000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>93686.53</v>
+        <v>93693.66</v>
       </c>
       <c r="G9" t="n">
-        <v>93554.06</v>
+        <v>93062.85000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>85598.25</v>
+        <v>92732.60000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>93955.75999999999</v>
+        <v>93974.36</v>
       </c>
       <c r="J9" t="n">
-        <v>94114.37</v>
+        <v>92773.25</v>
       </c>
       <c r="K9" t="n">
-        <v>92468.42</v>
+        <v>92956.47</v>
       </c>
       <c r="L9" t="n">
-        <v>93096.28999999999</v>
+        <v>92910.92999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>92731.92</v>
-      </c>
+        <v>93929.46000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>94126.52</v>
+      </c>
+      <c r="O9" t="n">
+        <v>93354.00999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>92586.10000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>93647.48</v>
+      </c>
+      <c r="R9" t="n">
+        <v>93845.89999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>92601.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>93890.58</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8786.559999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9069.799999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>10077.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8975.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9096.639999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9284.040000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9271.969999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9329.459999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8935.709999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9292.35</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9084.49</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9161.709999999999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9181.27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9064.889999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8905.51</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9002.049999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9397.790000000001</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9166.49</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8919.02</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8854.450000000001</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8903.799999999999</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9363.27</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9250.9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8960.42</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9308.940000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9077.950000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9157.75</v>
+        <v>124568.67</v>
       </c>
       <c r="C11" t="n">
-        <v>9349.76</v>
+        <v>124743.01</v>
       </c>
       <c r="D11" t="n">
-        <v>8905.440000000001</v>
+        <v>142386.25</v>
       </c>
       <c r="E11" t="n">
-        <v>9070.83</v>
+        <v>119601.14</v>
       </c>
       <c r="F11" t="n">
-        <v>9146.26</v>
+        <v>119900.75</v>
       </c>
       <c r="G11" t="n">
-        <v>8960.379999999999</v>
+        <v>119518.56</v>
       </c>
       <c r="H11" t="n">
-        <v>8203.16</v>
+        <v>119704.71</v>
       </c>
       <c r="I11" t="n">
-        <v>9230.34</v>
+        <v>119622.91</v>
       </c>
       <c r="J11" t="n">
-        <v>8788.290000000001</v>
+        <v>119663.2</v>
       </c>
       <c r="K11" t="n">
-        <v>8996</v>
+        <v>119501.98</v>
       </c>
       <c r="L11" t="n">
-        <v>9023.83</v>
+        <v>119617.08</v>
       </c>
       <c r="M11" t="n">
-        <v>8786.559999999999</v>
+        <v>119575.36</v>
+      </c>
+      <c r="N11" t="n">
+        <v>122847.24</v>
+      </c>
+      <c r="O11" t="n">
+        <v>122513.38</v>
+      </c>
+      <c r="P11" t="n">
+        <v>122250.84</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>122376.89</v>
+      </c>
+      <c r="R11" t="n">
+        <v>122710.98</v>
+      </c>
+      <c r="S11" t="n">
+        <v>122602.24</v>
+      </c>
+      <c r="T11" t="n">
+        <v>122778.19</v>
+      </c>
+      <c r="U11" t="n">
+        <v>126775.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>126952.54</v>
+      </c>
+      <c r="W11" t="n">
+        <v>126973.38</v>
+      </c>
+      <c r="X11" t="n">
+        <v>126702.08</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>126806.52</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>126809.63</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>126830.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114923.23</v>
+        <v>1121118.04</v>
       </c>
       <c r="C12" t="n">
-        <v>144929.88</v>
+        <v>1122687.05</v>
       </c>
       <c r="D12" t="n">
-        <v>112707.67</v>
+        <v>1281476.24</v>
       </c>
       <c r="E12" t="n">
-        <v>125263.38</v>
+        <v>1076410.29</v>
       </c>
       <c r="F12" t="n">
-        <v>125080.85</v>
+        <v>1079106.79</v>
       </c>
       <c r="G12" t="n">
-        <v>125237.77</v>
+        <v>1075667</v>
       </c>
       <c r="H12" t="n">
-        <v>116164.76</v>
+        <v>1077342.38</v>
       </c>
       <c r="I12" t="n">
-        <v>125289.46</v>
+        <v>1076606.2</v>
       </c>
       <c r="J12" t="n">
-        <v>124859.79</v>
+        <v>1076968.84</v>
       </c>
       <c r="K12" t="n">
-        <v>124848.95</v>
+        <v>1075517.86</v>
       </c>
       <c r="L12" t="n">
-        <v>124805.7</v>
+        <v>1076553.69</v>
       </c>
       <c r="M12" t="n">
-        <v>124568.67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1149232.32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1014509.14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1127076.73</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1127370.42</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1125727.65</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1127139.93</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1045482.87</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1127605.18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1123738.07</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1123640.54</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1123251.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1121118.04</v>
+        <v>1076178.21</v>
+      </c>
+      <c r="N12" t="n">
+        <v>982777.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>980107.02</v>
+      </c>
+      <c r="P12" t="n">
+        <v>978006.74</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>979015.14</v>
+      </c>
+      <c r="R12" t="n">
+        <v>981687.84</v>
+      </c>
+      <c r="S12" t="n">
+        <v>980817.9300000001</v>
+      </c>
+      <c r="T12" t="n">
+        <v>982225.52</v>
+      </c>
+      <c r="U12" t="n">
+        <v>887430.48</v>
+      </c>
+      <c r="V12" t="n">
+        <v>888667.78</v>
+      </c>
+      <c r="W12" t="n">
+        <v>888813.63</v>
+      </c>
+      <c r="X12" t="n">
+        <v>886914.5600000001</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>887645.64</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>887667.41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>887813.36</v>
       </c>
     </row>
   </sheetData>
